--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/손이 참 곱던 그대_임영웅.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/손이 참 곱던 그대_임영웅.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_0b0c74127cbaa7687eaddf5818c82cec</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_2babbe4eb7b6c7dd001e3f610d1a8350</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,18 +56,12 @@
     <t>손이 참 곱던 그대</t>
   </si>
   <si>
-    <t>2022-04-16</t>
+    <t>2022-04-18</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
     <t>2022-04-19</t>
   </si>
   <si>
@@ -204,6 +198,18 @@
   </si>
   <si>
     <t>6.85082</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>10.49723</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>8.17679</t>
   </si>
 </sst>
 </file>
@@ -379,47 +385,47 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -427,135 +433,135 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
